--- a/Examples/objecthandler/simple/AddinXl/AddinXl.xlsx
+++ b/Examples/objecthandler/simple/AddinXl/AddinXl.xlsx
@@ -375,7 +375,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="str">
-        <f>_xll.func()</f>
+        <f>_xll.slFunc()</f>
         <v>f()</v>
       </c>
     </row>
@@ -384,8 +384,8 @@
         <v>0</v>
       </c>
       <c r="B2" t="str">
-        <f>_xll.Adder("adder", 1)</f>
-        <v>adder#0000</v>
+        <f>_xll.slAdder("adder", 1)</f>
+        <v>adder#0001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -393,8 +393,8 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f>_xll.adderadd(B2,2)</f>
-        <v>3</v>
+        <f>_xll.slAdderAdd(B2,2)</f>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/objecthandler/simple/AddinXl/AddinXl.xlsx
+++ b/Examples/objecthandler/simple/AddinXl/AddinXl.xlsx
@@ -385,7 +385,7 @@
       </c>
       <c r="B2" t="str">
         <f>_xll.slAdder("adder", 1)</f>
-        <v>adder#0001</v>
+        <v>adder#0000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -394,7 +394,7 @@
       </c>
       <c r="B3">
         <f>_xll.slAdderAdd(B2,2)</f>
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
